--- a/Excel/Datas/启动配置/StartSceneConfig.xlsx
+++ b/Excel/Datas/启动配置/StartSceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\启动配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4500F2-F129-40AA-9E48-09F1EA6B2084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B02770-0F00-4641-84A4-DF9FC275297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -285,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -326,6 +326,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,15 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -627,7 +621,7 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -660,7 +654,7 @@
       <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -673,8 +667,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
       <c r="N1" s="6"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -763,8 +757,8 @@
       <c r="I3" s="4"/>
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="6"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -852,7 +846,7 @@
       <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -900,13 +894,13 @@
       <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="18">
         <v>30002</v>
       </c>
       <c r="H6" s="16"/>
@@ -925,13 +919,13 @@
       <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="18">
         <v>30003</v>
       </c>
       <c r="H7" s="16"/>
@@ -950,13 +944,13 @@
       <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="18">
         <v>30004</v>
       </c>
       <c r="H8" s="16"/>
@@ -975,13 +969,13 @@
       <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="16"/>
       <c r="I9" s="11"/>
       <c r="K9" s="11"/>
@@ -998,13 +992,13 @@
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="16"/>
       <c r="I10" s="11"/>
       <c r="K10" s="11"/>
@@ -1021,13 +1015,13 @@
       <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="16"/>
       <c r="I11" s="11"/>
       <c r="K11" s="11"/>
@@ -1035,12 +1029,24 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="16">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="18">
+        <v>30002</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="11"/>
       <c r="K12" s="11"/>
@@ -1048,12 +1054,24 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="24"/>
+      <c r="B13" s="16">
+        <v>8</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="18">
+        <v>30003</v>
+      </c>
       <c r="H13" s="16"/>
       <c r="I13" s="11"/>
       <c r="K13" s="11"/>
@@ -1061,12 +1079,24 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="24"/>
+      <c r="B14" s="16">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="18">
+        <v>30004</v>
+      </c>
       <c r="H14" s="16"/>
       <c r="I14" s="11"/>
       <c r="K14" s="11"/>
@@ -1074,12 +1104,22 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="16">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17">
+        <v>2</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="18"/>
       <c r="H15" s="16"/>
       <c r="I15" s="11"/>
       <c r="K15" s="11"/>
@@ -1087,21 +1127,41 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="18"/>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="16">
+        <v>12</v>
+      </c>
+      <c r="C17" s="17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="18"/>
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">

--- a/Excel/Datas/启动配置/StartSceneConfig.xlsx
+++ b/Excel/Datas/启动配置/StartSceneConfig.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\启动配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B02770-0F00-4641-84A4-DF9FC275297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5785FE98-00FE-482B-8627-3A03C0552ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="Robot" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -126,6 +127,14 @@
   </si>
   <si>
     <t>Gate2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot01</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -285,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -341,6 +350,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -620,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1245,4 +1255,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DE3244-154F-4C8D-B86A-AEB9A9EE6D38}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Datas/启动配置/StartSceneConfig.xlsx
+++ b/Excel/Datas/启动配置/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\启动配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5785FE98-00FE-482B-8627-3A03C0552ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5F6C60-EDC1-4FCE-9832-C2344AE7DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>Robot01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot02</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -350,7 +354,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -630,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>20</v>
@@ -1071,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>21</v>
@@ -1096,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>21</v>
@@ -1121,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>22</v>
@@ -1144,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>23</v>
@@ -1163,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>23</v>
@@ -1259,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DE3244-154F-4C8D-B86A-AEB9A9EE6D38}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1386,25 +1389,54 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16">
         <v>200</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="18" t="s">
         <v>29</v>
       </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16">
+        <v>201</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Excel/Datas/启动配置/StartSceneConfig.xlsx
+++ b/Excel/Datas/启动配置/StartSceneConfig.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\启动配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5F6C60-EDC1-4FCE-9832-C2344AE7DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5B8FD3-50B6-46AD-A6DE-B498C4EFC002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Robot" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>所属进程</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>所属区</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -138,7 +134,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Robot02</t>
+    <t>所属进程序号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -634,15 +630,14 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="2" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
@@ -662,19 +657,19 @@
         <v>5</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="3"/>
@@ -758,10 +753,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>7</v>
@@ -857,16 +852,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="3"/>
@@ -899,7 +894,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -908,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="18">
         <v>30002</v>
@@ -924,7 +919,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -933,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="18">
         <v>30003</v>
@@ -949,7 +944,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -958,10 +953,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="18">
         <v>30004</v>
@@ -974,7 +969,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -983,10 +978,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="16"/>
@@ -997,7 +992,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -1006,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="16"/>
@@ -1020,7 +1015,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -1029,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="16"/>
@@ -1043,23 +1038,21 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
-        <v>7</v>
-      </c>
-      <c r="C12" s="17">
-        <v>2</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2</v>
+        <v>1007</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="18">
-        <v>30002</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="11"/>
       <c r="K12" s="11"/>
@@ -1067,24 +1060,12 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
-        <v>8</v>
-      </c>
-      <c r="C13" s="17">
-        <v>2</v>
-      </c>
-      <c r="D13" s="17">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="18">
-        <v>30003</v>
-      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="16"/>
       <c r="I13" s="11"/>
       <c r="K13" s="11"/>
@@ -1092,24 +1073,12 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>9</v>
-      </c>
-      <c r="C14" s="17">
-        <v>2</v>
-      </c>
-      <c r="D14" s="17">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="18">
-        <v>30004</v>
-      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="16"/>
       <c r="I14" s="11"/>
       <c r="K14" s="11"/>
@@ -1117,21 +1086,11 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>10</v>
-      </c>
-      <c r="C15" s="17">
-        <v>2</v>
-      </c>
-      <c r="D15" s="17">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="16"/>
       <c r="I15" s="11"/>
@@ -1140,40 +1099,20 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>11</v>
-      </c>
-      <c r="C16" s="17">
-        <v>2</v>
-      </c>
-      <c r="D16" s="17">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
-        <v>12</v>
-      </c>
-      <c r="C17" s="17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="16"/>
     </row>
@@ -1261,16 +1200,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DE3244-154F-4C8D-B86A-AEB9A9EE6D38}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EC6DEF-76EC-4C2E-BF0E-9266D2B95BFD}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1278,25 +1222,24 @@
         <v>5</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1308,9 +1251,8 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1324,19 +1266,18 @@
         <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1360,9 +1301,8 @@
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1373,70 +1313,231 @@
         <v>9</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
-        <v>200</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17">
         <v>1</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="18">
+        <v>30002</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="18">
+        <v>30003</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>2003</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="18">
+        <v>30004</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
+        <v>2004</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>2005</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>2006</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>2007</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16">
-        <v>201</v>
-      </c>
-      <c r="C7" s="16">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
